--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2481308.630428109</v>
+        <v>-2483978.62598307</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9823063.766377144</v>
+        <v>9823063.766377151</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>369.0685238739793</v>
+        <v>291.4325367203677</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>351.6075739815061</v>
       </c>
       <c r="D11" t="n">
-        <v>341.0177238311817</v>
+        <v>341.0177238311815</v>
       </c>
       <c r="E11" t="n">
-        <v>368.2650522827605</v>
+        <v>368.2650522827603</v>
       </c>
       <c r="F11" t="n">
-        <v>393.2107279522102</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.2564078639522</v>
+        <v>397.2564078639519</v>
       </c>
       <c r="H11" t="n">
-        <v>280.9424465978192</v>
+        <v>280.942446597819</v>
       </c>
       <c r="I11" t="n">
-        <v>27.91161198342471</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.52244399867458</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>190.2526523501189</v>
+        <v>190.2526523501186</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>314.0869406806336</v>
+        <v>314.0869406806334</v>
       </c>
       <c r="W11" t="n">
-        <v>76.39561584391015</v>
+        <v>335.5756509279115</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>356.0657828889675</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.5726208665523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>166.1666623924358</v>
       </c>
       <c r="C13" t="n">
-        <v>153.5815033091266</v>
+        <v>153.5815033091263</v>
       </c>
       <c r="D13" t="n">
-        <v>134.9501552287111</v>
+        <v>134.9501552287109</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>132.7686448570677</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>131.7557302334297</v>
       </c>
       <c r="G13" t="n">
-        <v>152.360490469527</v>
+        <v>152.3604904695267</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0896971248193</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>75.26683488054583</v>
       </c>
       <c r="S13" t="n">
-        <v>176.1037075419406</v>
+        <v>155.1325709239977</v>
       </c>
       <c r="T13" t="n">
-        <v>205.8836314866679</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>272.5465204161116</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>238.4723255343267</v>
+        <v>238.4723255343265</v>
       </c>
       <c r="W13" t="n">
-        <v>272.8576805470897</v>
+        <v>272.8576805470895</v>
       </c>
       <c r="X13" t="n">
-        <v>137.6462809675722</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.9193355625935</v>
+        <v>204.9193355625933</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.0685238739794</v>
+        <v>369.0685238739791</v>
       </c>
       <c r="C14" t="n">
-        <v>351.6075739815063</v>
+        <v>351.6075739815061</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>341.0177238311815</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>368.2650522827603</v>
       </c>
       <c r="F14" t="n">
-        <v>393.2107279522102</v>
+        <v>393.2107279522099</v>
       </c>
       <c r="G14" t="n">
-        <v>397.2564078639522</v>
+        <v>397.2564078639519</v>
       </c>
       <c r="H14" t="n">
-        <v>280.9424465978192</v>
+        <v>280.942446597819</v>
       </c>
       <c r="I14" t="n">
-        <v>27.91161198342476</v>
+        <v>27.91161198342444</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.52244399867463</v>
+        <v>95.52244399867432</v>
       </c>
       <c r="T14" t="n">
-        <v>190.252652350119</v>
+        <v>190.2526523501186</v>
       </c>
       <c r="U14" t="n">
-        <v>56.51632484009934</v>
+        <v>237.3298541694005</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>335.5756509279118</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>356.0657828889678</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>372.5726208665524</v>
+        <v>174.1177492401916</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>166.1666623924358</v>
       </c>
       <c r="C16" t="n">
-        <v>153.5815033091266</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>134.9501552287111</v>
+        <v>134.9501552287109</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>152.360490469527</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>56.21873997415709</v>
+        <v>131.0896971248193</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.26683488054613</v>
+        <v>75.26683488054583</v>
       </c>
       <c r="S16" t="n">
-        <v>176.1037075419407</v>
+        <v>176.1037075419404</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>205.8836314866677</v>
       </c>
       <c r="U16" t="n">
-        <v>272.5465204161117</v>
+        <v>272.5465204161114</v>
       </c>
       <c r="V16" t="n">
-        <v>238.4723255343268</v>
+        <v>238.4723255343265</v>
       </c>
       <c r="W16" t="n">
-        <v>272.8576805470898</v>
+        <v>272.8576805470895</v>
       </c>
       <c r="X16" t="n">
-        <v>212.0443375995359</v>
+        <v>212.0443375995357</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9193355625936</v>
+        <v>63.94007831148657</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>283.2820788211381</v>
+        <v>322.0933872553865</v>
       </c>
       <c r="C17" t="n">
-        <v>304.6324373629138</v>
+        <v>304.6324373629135</v>
       </c>
       <c r="D17" t="n">
-        <v>294.0425872125892</v>
+        <v>294.0425872125889</v>
       </c>
       <c r="E17" t="n">
-        <v>321.289915664168</v>
+        <v>321.2899156641677</v>
       </c>
       <c r="F17" t="n">
-        <v>346.2355913336177</v>
+        <v>346.2355913336174</v>
       </c>
       <c r="G17" t="n">
-        <v>350.2812712453597</v>
+        <v>350.2812712453594</v>
       </c>
       <c r="H17" t="n">
-        <v>233.9673099792267</v>
+        <v>233.9673099792264</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>48.54730738008207</v>
+        <v>9.735998945826537</v>
       </c>
       <c r="T17" t="n">
-        <v>143.2775157315264</v>
+        <v>143.2775157315261</v>
       </c>
       <c r="U17" t="n">
-        <v>190.3547175508082</v>
+        <v>190.3547175508079</v>
       </c>
       <c r="V17" t="n">
-        <v>267.1118040620411</v>
+        <v>267.1118040620408</v>
       </c>
       <c r="W17" t="n">
-        <v>288.6005143093192</v>
+        <v>288.600514309319</v>
       </c>
       <c r="X17" t="n">
-        <v>309.0906462703753</v>
+        <v>309.090646270375</v>
       </c>
       <c r="Y17" t="n">
-        <v>325.5974842479598</v>
+        <v>325.5974842479595</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247748</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.1915257738435</v>
+        <v>119.1915257738432</v>
       </c>
       <c r="C19" t="n">
-        <v>106.6063666905341</v>
+        <v>106.6063666905338</v>
       </c>
       <c r="D19" t="n">
-        <v>87.97501861011858</v>
+        <v>87.9750186101183</v>
       </c>
       <c r="E19" t="n">
-        <v>85.7935082384754</v>
+        <v>85.79350823847511</v>
       </c>
       <c r="F19" t="n">
-        <v>84.78059361483747</v>
+        <v>84.78059361483719</v>
       </c>
       <c r="G19" t="n">
-        <v>105.3853538509345</v>
+        <v>105.3853538509342</v>
       </c>
       <c r="H19" t="n">
-        <v>84.11456050622701</v>
+        <v>84.11456050622672</v>
       </c>
       <c r="I19" t="n">
-        <v>35.71196600174434</v>
+        <v>35.71196600174404</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.29169826195357</v>
+        <v>28.29169826195327</v>
       </c>
       <c r="S19" t="n">
-        <v>129.1285709233481</v>
+        <v>129.1285709233478</v>
       </c>
       <c r="T19" t="n">
-        <v>158.9084948680754</v>
+        <v>158.9084948680751</v>
       </c>
       <c r="U19" t="n">
-        <v>225.5713837975191</v>
+        <v>225.5713837975188</v>
       </c>
       <c r="V19" t="n">
-        <v>191.4971889157342</v>
+        <v>191.4971889157339</v>
       </c>
       <c r="W19" t="n">
-        <v>225.8825439284972</v>
+        <v>225.8825439284969</v>
       </c>
       <c r="X19" t="n">
-        <v>165.0692009809434</v>
+        <v>165.0692009809431</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.944198944001</v>
+        <v>157.9441989440007</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>322.0933872553868</v>
+        <v>322.0933872553865</v>
       </c>
       <c r="C20" t="n">
-        <v>304.6324373629138</v>
+        <v>304.6324373629135</v>
       </c>
       <c r="D20" t="n">
-        <v>294.0425872125892</v>
+        <v>255.2312787783337</v>
       </c>
       <c r="E20" t="n">
-        <v>282.4786072299184</v>
+        <v>321.2899156641677</v>
       </c>
       <c r="F20" t="n">
-        <v>346.2355913336177</v>
+        <v>346.2355913336174</v>
       </c>
       <c r="G20" t="n">
-        <v>350.2812712453597</v>
+        <v>350.2812712453594</v>
       </c>
       <c r="H20" t="n">
-        <v>233.9673099792267</v>
+        <v>233.9673099792264</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>48.54730738008206</v>
+        <v>48.54730738008178</v>
       </c>
       <c r="T20" t="n">
-        <v>143.2775157315264</v>
+        <v>143.2775157315261</v>
       </c>
       <c r="U20" t="n">
-        <v>190.3547175508082</v>
+        <v>190.3547175508079</v>
       </c>
       <c r="V20" t="n">
-        <v>267.1118040620411</v>
+        <v>267.1118040620408</v>
       </c>
       <c r="W20" t="n">
-        <v>288.6005143093192</v>
+        <v>288.600514309319</v>
       </c>
       <c r="X20" t="n">
-        <v>309.0906462703753</v>
+        <v>309.090646270375</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.5974842479598</v>
+        <v>325.5974842479595</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.1915257738435</v>
+        <v>119.1915257738432</v>
       </c>
       <c r="C22" t="n">
-        <v>106.6063666905341</v>
+        <v>106.6063666905338</v>
       </c>
       <c r="D22" t="n">
-        <v>87.97501861011858</v>
+        <v>87.9750186101183</v>
       </c>
       <c r="E22" t="n">
-        <v>85.7935082384754</v>
+        <v>85.79350823847511</v>
       </c>
       <c r="F22" t="n">
-        <v>84.78059361483747</v>
+        <v>84.78059361483719</v>
       </c>
       <c r="G22" t="n">
-        <v>105.3853538509345</v>
+        <v>105.3853538509342</v>
       </c>
       <c r="H22" t="n">
-        <v>84.11456050622701</v>
+        <v>84.11456050622672</v>
       </c>
       <c r="I22" t="n">
-        <v>35.71196600174432</v>
+        <v>35.71196600174404</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.29169826195356</v>
+        <v>28.29169826195327</v>
       </c>
       <c r="S22" t="n">
-        <v>129.1285709233481</v>
+        <v>129.1285709233478</v>
       </c>
       <c r="T22" t="n">
-        <v>158.9084948680754</v>
+        <v>158.9084948680751</v>
       </c>
       <c r="U22" t="n">
-        <v>225.5713837975191</v>
+        <v>225.5713837975188</v>
       </c>
       <c r="V22" t="n">
-        <v>191.4971889157342</v>
+        <v>191.4971889157339</v>
       </c>
       <c r="W22" t="n">
-        <v>225.8825439284972</v>
+        <v>225.8825439284969</v>
       </c>
       <c r="X22" t="n">
-        <v>165.0692009809434</v>
+        <v>165.0692009809431</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.944198944001</v>
+        <v>157.9441989440007</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>322.0933872553868</v>
+        <v>322.0933872553865</v>
       </c>
       <c r="C23" t="n">
-        <v>304.6324373629138</v>
+        <v>304.6324373629135</v>
       </c>
       <c r="D23" t="n">
-        <v>294.0425872125892</v>
+        <v>294.0425872125889</v>
       </c>
       <c r="E23" t="n">
-        <v>321.289915664168</v>
+        <v>321.2899156641677</v>
       </c>
       <c r="F23" t="n">
-        <v>346.2355913336177</v>
+        <v>346.2355913336174</v>
       </c>
       <c r="G23" t="n">
-        <v>350.2812712453597</v>
+        <v>350.2812712453594</v>
       </c>
       <c r="H23" t="n">
-        <v>233.9673099792267</v>
+        <v>233.9673099792264</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>48.54730738008207</v>
+        <v>48.54730738008178</v>
       </c>
       <c r="T23" t="n">
-        <v>143.2775157315264</v>
+        <v>143.2775157315261</v>
       </c>
       <c r="U23" t="n">
-        <v>190.3547175508082</v>
+        <v>190.3547175508079</v>
       </c>
       <c r="V23" t="n">
-        <v>267.1118040620411</v>
+        <v>267.1118040620408</v>
       </c>
       <c r="W23" t="n">
-        <v>288.6005143093192</v>
+        <v>288.600514309319</v>
       </c>
       <c r="X23" t="n">
-        <v>309.0906462703753</v>
+        <v>309.090646270375</v>
       </c>
       <c r="Y23" t="n">
-        <v>325.5974842479598</v>
+        <v>325.5974842479595</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.1915257738435</v>
+        <v>119.1915257738432</v>
       </c>
       <c r="C25" t="n">
-        <v>106.6063666905341</v>
+        <v>106.6063666905338</v>
       </c>
       <c r="D25" t="n">
-        <v>87.97501861011858</v>
+        <v>87.9750186101183</v>
       </c>
       <c r="E25" t="n">
-        <v>85.7935082384754</v>
+        <v>85.79350823847511</v>
       </c>
       <c r="F25" t="n">
-        <v>84.78059361483747</v>
+        <v>84.78059361483719</v>
       </c>
       <c r="G25" t="n">
-        <v>105.3853538509345</v>
+        <v>105.3853538509342</v>
       </c>
       <c r="H25" t="n">
-        <v>84.11456050622701</v>
+        <v>84.11456050622672</v>
       </c>
       <c r="I25" t="n">
-        <v>35.71196600174434</v>
+        <v>35.71196600174404</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.29169826195357</v>
+        <v>28.29169826195327</v>
       </c>
       <c r="S25" t="n">
-        <v>129.1285709233481</v>
+        <v>129.1285709233478</v>
       </c>
       <c r="T25" t="n">
-        <v>158.9084948680754</v>
+        <v>158.9084948680751</v>
       </c>
       <c r="U25" t="n">
-        <v>225.5713837975191</v>
+        <v>225.5713837975188</v>
       </c>
       <c r="V25" t="n">
-        <v>191.4971889157342</v>
+        <v>191.4971889157339</v>
       </c>
       <c r="W25" t="n">
-        <v>225.8825439284972</v>
+        <v>225.8825439284969</v>
       </c>
       <c r="X25" t="n">
-        <v>165.0692009809434</v>
+        <v>165.0692009809431</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.944198944001</v>
+        <v>157.9441989440007</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145497</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3269,16 +3269,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,16 +3667,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124555</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1893.384813918394</v>
+        <v>1823.167878611192</v>
       </c>
       <c r="C11" t="n">
-        <v>1893.384813918394</v>
+        <v>1468.008712973307</v>
       </c>
       <c r="D11" t="n">
-        <v>1548.92246661417</v>
+        <v>1123.546365669084</v>
       </c>
       <c r="E11" t="n">
-        <v>1176.937565318452</v>
+        <v>751.5614643733662</v>
       </c>
       <c r="F11" t="n">
-        <v>779.7550118313715</v>
+        <v>751.5614643733662</v>
       </c>
       <c r="G11" t="n">
-        <v>378.4859129788945</v>
+        <v>350.2923655208895</v>
       </c>
       <c r="H11" t="n">
-        <v>94.70566389018819</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3229.118504438792</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3036.944108125541</v>
+        <v>3133.43142529592</v>
       </c>
       <c r="U11" t="n">
-        <v>3036.944108125541</v>
+        <v>3133.43142529592</v>
       </c>
       <c r="V11" t="n">
-        <v>2719.684572084497</v>
+        <v>2816.171889254876</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.517283353274</v>
+        <v>2477.206585287289</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.517283353274</v>
+        <v>2117.544178328736</v>
       </c>
       <c r="Y11" t="n">
-        <v>2266.181302679989</v>
+        <v>2117.544178328736</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5121,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5136,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>511.8577214901275</v>
+        <v>911.4678954449922</v>
       </c>
       <c r="C13" t="n">
-        <v>356.7248898647471</v>
+        <v>756.3350638196121</v>
       </c>
       <c r="D13" t="n">
-        <v>220.4116017549379</v>
+        <v>620.0217757098031</v>
       </c>
       <c r="E13" t="n">
-        <v>220.4116017549379</v>
+        <v>485.9120334299368</v>
       </c>
       <c r="F13" t="n">
-        <v>220.4116017549379</v>
+        <v>352.8254372345532</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>198.9259519117988</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5197,52 +5197,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>125.1634134907252</v>
+        <v>125.1634134907255</v>
       </c>
       <c r="K13" t="n">
-        <v>342.6792610512077</v>
+        <v>342.6792610512084</v>
       </c>
       <c r="L13" t="n">
-        <v>672.76772411131</v>
+        <v>672.7677241113109</v>
       </c>
       <c r="M13" t="n">
-        <v>1030.453434322465</v>
+        <v>1030.453434322466</v>
       </c>
       <c r="N13" t="n">
-        <v>1385.390475639936</v>
+        <v>1385.390475639937</v>
       </c>
       <c r="O13" t="n">
-        <v>1698.248739171956</v>
+        <v>1698.248739171957</v>
       </c>
       <c r="P13" t="n">
-        <v>1944.384904217221</v>
+        <v>1944.384904217223</v>
       </c>
       <c r="Q13" t="n">
-        <v>2035.523864981342</v>
+        <v>2035.523864981345</v>
       </c>
       <c r="R13" t="n">
-        <v>2035.523864981342</v>
+        <v>1959.496759041399</v>
       </c>
       <c r="S13" t="n">
-        <v>1857.641332110695</v>
+        <v>1802.797192451502</v>
       </c>
       <c r="T13" t="n">
-        <v>1649.678067982748</v>
+        <v>1802.797192451502</v>
       </c>
       <c r="U13" t="n">
-        <v>1374.378552410918</v>
+        <v>1802.797192451502</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.497415507557</v>
+        <v>1561.916055548142</v>
       </c>
       <c r="W13" t="n">
-        <v>857.8835967731231</v>
+        <v>1286.302236813709</v>
       </c>
       <c r="X13" t="n">
-        <v>718.846949331131</v>
+        <v>1286.302236813709</v>
       </c>
       <c r="Y13" t="n">
-        <v>511.8577214901275</v>
+        <v>1079.313008972705</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1532.096730956338</v>
+        <v>2248.543979556277</v>
       </c>
       <c r="C14" t="n">
-        <v>1176.937565318453</v>
+        <v>1893.384813918392</v>
       </c>
       <c r="D14" t="n">
-        <v>1176.937565318453</v>
+        <v>1548.922466614169</v>
       </c>
       <c r="E14" t="n">
-        <v>1176.937565318453</v>
+        <v>1176.937565318451</v>
       </c>
       <c r="F14" t="n">
-        <v>779.7550118313718</v>
+        <v>779.7550118313707</v>
       </c>
       <c r="G14" t="n">
-        <v>378.4859129788948</v>
+        <v>378.4859129788939</v>
       </c>
       <c r="H14" t="n">
-        <v>94.7056638901884</v>
+        <v>94.70566389018791</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,13 +5288,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3229.118504438792</v>
+        <v>3229.118504438793</v>
       </c>
       <c r="T14" t="n">
         <v>3036.944108125541</v>
       </c>
       <c r="U14" t="n">
-        <v>2979.85691131736</v>
+        <v>2797.216982701904</v>
       </c>
       <c r="V14" t="n">
-        <v>2979.85691131736</v>
+        <v>2797.216982701904</v>
       </c>
       <c r="W14" t="n">
-        <v>2640.891607349772</v>
+        <v>2797.216982701904</v>
       </c>
       <c r="X14" t="n">
-        <v>2281.229200391219</v>
+        <v>2797.216982701904</v>
       </c>
       <c r="Y14" t="n">
-        <v>1904.893219717934</v>
+        <v>2621.340468317872</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5358,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>568.6443275246297</v>
+        <v>335.2392400216078</v>
       </c>
       <c r="C16" t="n">
-        <v>413.5114958992493</v>
+        <v>335.2392400216078</v>
       </c>
       <c r="D16" t="n">
-        <v>277.1982077894401</v>
+        <v>198.9259519117988</v>
       </c>
       <c r="E16" t="n">
-        <v>277.1982077894401</v>
+        <v>198.9259519117988</v>
       </c>
       <c r="F16" t="n">
-        <v>277.1982077894401</v>
+        <v>198.9259519117988</v>
       </c>
       <c r="G16" t="n">
-        <v>123.2987224666855</v>
+        <v>198.9259519117988</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5434,52 +5434,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>125.1634134907252</v>
+        <v>125.1634134907255</v>
       </c>
       <c r="K16" t="n">
-        <v>342.6792610512077</v>
+        <v>342.6792610512083</v>
       </c>
       <c r="L16" t="n">
-        <v>672.7677241113099</v>
+        <v>672.7677241113113</v>
       </c>
       <c r="M16" t="n">
-        <v>1030.453434322465</v>
+        <v>1030.453434322467</v>
       </c>
       <c r="N16" t="n">
-        <v>1385.390475639936</v>
+        <v>1385.390475639938</v>
       </c>
       <c r="O16" t="n">
-        <v>1698.248739171955</v>
+        <v>1698.248739171958</v>
       </c>
       <c r="P16" t="n">
-        <v>1944.384904217221</v>
+        <v>1944.384904217223</v>
       </c>
       <c r="Q16" t="n">
-        <v>2035.523864981342</v>
+        <v>2035.523864981345</v>
       </c>
       <c r="R16" t="n">
-        <v>1959.496759041396</v>
+        <v>1959.496759041399</v>
       </c>
       <c r="S16" t="n">
-        <v>1781.614226170749</v>
+        <v>1781.614226170753</v>
       </c>
       <c r="T16" t="n">
-        <v>1781.614226170749</v>
+        <v>1573.650962042805</v>
       </c>
       <c r="U16" t="n">
-        <v>1506.314710598919</v>
+        <v>1298.351446470976</v>
       </c>
       <c r="V16" t="n">
-        <v>1265.433573695558</v>
+        <v>1057.470309567615</v>
       </c>
       <c r="W16" t="n">
-        <v>989.8197549611242</v>
+        <v>781.8564908331816</v>
       </c>
       <c r="X16" t="n">
-        <v>775.6335553656334</v>
+        <v>567.6702912376909</v>
       </c>
       <c r="Y16" t="n">
-        <v>568.6443275246297</v>
+        <v>503.0843535493207</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1945.543552015399</v>
+        <v>1945.543552015398</v>
       </c>
       <c r="C17" t="n">
         <v>1637.834019325587</v>
@@ -5501,64 +5501,64 @@
         <v>1016.286036621792</v>
       </c>
       <c r="F17" t="n">
-        <v>666.5531160827841</v>
+        <v>666.5531160827845</v>
       </c>
       <c r="G17" t="n">
-        <v>312.7336501783804</v>
+        <v>312.7336501783799</v>
       </c>
       <c r="H17" t="n">
-        <v>76.40303403774737</v>
+        <v>76.40303403774718</v>
       </c>
       <c r="I17" t="n">
-        <v>76.40303403774737</v>
+        <v>76.40303403774718</v>
       </c>
       <c r="J17" t="n">
-        <v>265.2821649967727</v>
+        <v>265.2821649967726</v>
       </c>
       <c r="K17" t="n">
-        <v>605.2126432800555</v>
+        <v>920.0054971320722</v>
       </c>
       <c r="L17" t="n">
-        <v>1469.73145893341</v>
+        <v>1371.039710380481</v>
       </c>
       <c r="M17" t="n">
-        <v>2003.263363605334</v>
+        <v>1904.571615052405</v>
       </c>
       <c r="N17" t="n">
-        <v>2550.042180664117</v>
+        <v>2451.350432111188</v>
       </c>
       <c r="O17" t="n">
-        <v>3053.014651543454</v>
+        <v>2954.322902990525</v>
       </c>
       <c r="P17" t="n">
-        <v>3447.789017900631</v>
+        <v>3447.789017900621</v>
       </c>
       <c r="Q17" t="n">
-        <v>3696.075379656314</v>
+        <v>3696.075379656304</v>
       </c>
       <c r="R17" t="n">
-        <v>3820.151701887369</v>
+        <v>3820.151701887359</v>
       </c>
       <c r="S17" t="n">
-        <v>3771.114017665064</v>
+        <v>3810.317359517837</v>
       </c>
       <c r="T17" t="n">
-        <v>3626.389254299886</v>
+        <v>3665.592596152659</v>
       </c>
       <c r="U17" t="n">
-        <v>3434.111761824322</v>
+        <v>3473.315103677096</v>
       </c>
       <c r="V17" t="n">
-        <v>3164.301858731351</v>
+        <v>3203.505200584126</v>
       </c>
       <c r="W17" t="n">
-        <v>2872.786187711837</v>
+        <v>2911.989529564612</v>
       </c>
       <c r="X17" t="n">
-        <v>2560.573413701357</v>
+        <v>2599.776755554131</v>
       </c>
       <c r="Y17" t="n">
-        <v>2231.687065976145</v>
+        <v>2270.89040782892</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2196.642013835137</v>
+        <v>951.4347720866724</v>
       </c>
       <c r="C18" t="n">
-        <v>2022.18898455401</v>
+        <v>776.9817428055454</v>
       </c>
       <c r="D18" t="n">
-        <v>1873.254574892759</v>
+        <v>628.0473331442942</v>
       </c>
       <c r="E18" t="n">
-        <v>1714.017119887303</v>
+        <v>468.8098781388387</v>
       </c>
       <c r="F18" t="n">
-        <v>1567.482561914188</v>
+        <v>322.2753201657237</v>
       </c>
       <c r="G18" t="n">
-        <v>1431.119461746806</v>
+        <v>185.9122199983418</v>
       </c>
       <c r="H18" t="n">
-        <v>1340.617567384674</v>
+        <v>95.41032563620928</v>
       </c>
       <c r="I18" t="n">
-        <v>1321.610275786212</v>
+        <v>76.40303403774718</v>
       </c>
       <c r="J18" t="n">
-        <v>1415.287545276829</v>
+        <v>170.0803035283645</v>
       </c>
       <c r="K18" t="n">
-        <v>1653.551744257176</v>
+        <v>408.3445025087117</v>
       </c>
       <c r="L18" t="n">
-        <v>2020.249904569841</v>
+        <v>775.042662821377</v>
       </c>
       <c r="M18" t="n">
-        <v>2467.526229792157</v>
+        <v>1222.318988043693</v>
       </c>
       <c r="N18" t="n">
-        <v>2941.049273346612</v>
+        <v>1695.842031598148</v>
       </c>
       <c r="O18" t="n">
-        <v>3352.010552764666</v>
+        <v>2106.803311016202</v>
       </c>
       <c r="P18" t="n">
-        <v>3662.510144240769</v>
+        <v>2417.302902492305</v>
       </c>
       <c r="Q18" t="n">
-        <v>3820.151701887369</v>
+        <v>2574.944460138905</v>
       </c>
       <c r="R18" t="n">
-        <v>3820.007348479885</v>
+        <v>2574.80010673142</v>
       </c>
       <c r="S18" t="n">
-        <v>3690.569461973364</v>
+        <v>2445.3622202249</v>
       </c>
       <c r="T18" t="n">
-        <v>3497.92646165122</v>
+        <v>2252.719219902756</v>
       </c>
       <c r="U18" t="n">
-        <v>3269.858614785636</v>
+        <v>2024.651373037171</v>
       </c>
       <c r="V18" t="n">
-        <v>3034.706506553893</v>
+        <v>1789.499264805429</v>
       </c>
       <c r="W18" t="n">
-        <v>2780.469149825692</v>
+        <v>1535.261908077227</v>
       </c>
       <c r="X18" t="n">
-        <v>2572.617649620159</v>
+        <v>1327.410407871694</v>
       </c>
       <c r="Y18" t="n">
-        <v>2364.857350855205</v>
+        <v>1119.650109106741</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.733708293173</v>
+        <v>672.7337082931708</v>
       </c>
       <c r="C19" t="n">
-        <v>565.0505096158658</v>
+        <v>565.0505096158639</v>
       </c>
       <c r="D19" t="n">
-        <v>476.1868544541298</v>
+        <v>476.1868544541283</v>
       </c>
       <c r="E19" t="n">
-        <v>389.5267451223365</v>
+        <v>389.5267451223352</v>
       </c>
       <c r="F19" t="n">
-        <v>303.889781875026</v>
+        <v>303.8897818750249</v>
       </c>
       <c r="G19" t="n">
-        <v>197.4399295003447</v>
+        <v>197.4399295003439</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4757269688023</v>
+        <v>112.4757269688018</v>
       </c>
       <c r="I19" t="n">
-        <v>76.40303403774737</v>
+        <v>76.40303403774718</v>
       </c>
       <c r="J19" t="n">
-        <v>121.5256664846829</v>
+        <v>181.5597163486959</v>
       </c>
       <c r="K19" t="n">
-        <v>385.5468992975721</v>
+        <v>416.6682607483706</v>
       </c>
       <c r="L19" t="n">
-        <v>702.1066977460682</v>
+        <v>733.2280591968668</v>
       </c>
       <c r="M19" t="n">
-        <v>1106.29779320963</v>
+        <v>1077.385104796416</v>
       </c>
       <c r="N19" t="n">
-        <v>1478.827531366298</v>
+        <v>1418.79348150228</v>
       </c>
       <c r="O19" t="n">
-        <v>1778.157130286712</v>
+        <v>1718.123080422694</v>
       </c>
       <c r="P19" t="n">
-        <v>2010.764630720371</v>
+        <v>1950.730580856353</v>
       </c>
       <c r="Q19" t="n">
-        <v>2088.374926872886</v>
+        <v>2088.374926872881</v>
       </c>
       <c r="R19" t="n">
-        <v>2059.797453881014</v>
+        <v>2059.797453881009</v>
       </c>
       <c r="S19" t="n">
-        <v>1929.36455395844</v>
+        <v>1929.364553958436</v>
       </c>
       <c r="T19" t="n">
-        <v>1768.850922778565</v>
+        <v>1768.850922778562</v>
       </c>
       <c r="U19" t="n">
-        <v>1541.001040154809</v>
+        <v>1541.001040154805</v>
       </c>
       <c r="V19" t="n">
-        <v>1347.569536199522</v>
+        <v>1347.569536199518</v>
       </c>
       <c r="W19" t="n">
-        <v>1119.405350413161</v>
+        <v>1119.405350413158</v>
       </c>
       <c r="X19" t="n">
-        <v>952.6687837657432</v>
+        <v>952.6687837657405</v>
       </c>
       <c r="Y19" t="n">
-        <v>793.129188872813</v>
+        <v>793.1291888728105</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1906.340210162622</v>
+        <v>1906.340210162615</v>
       </c>
       <c r="C20" t="n">
-        <v>1598.63067747281</v>
+        <v>1598.630677472802</v>
       </c>
       <c r="D20" t="n">
-        <v>1301.617963116659</v>
+        <v>1340.821304969435</v>
       </c>
       <c r="E20" t="n">
-        <v>1016.286036621792</v>
+        <v>1016.286036621791</v>
       </c>
       <c r="F20" t="n">
-        <v>666.5531160827843</v>
+        <v>666.5531160827833</v>
       </c>
       <c r="G20" t="n">
-        <v>312.7336501783804</v>
+        <v>312.7336501783799</v>
       </c>
       <c r="H20" t="n">
-        <v>76.40303403774737</v>
+        <v>76.40303403774718</v>
       </c>
       <c r="I20" t="n">
-        <v>76.40303403774737</v>
+        <v>76.40303403774718</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2821649967728</v>
+        <v>265.2821649967726</v>
       </c>
       <c r="K20" t="n">
-        <v>599.1015386866193</v>
+        <v>671.8008598140464</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.620354339974</v>
+        <v>1122.835073062455</v>
       </c>
       <c r="M20" t="n">
-        <v>2068.322619279586</v>
+        <v>2068.322619279576</v>
       </c>
       <c r="N20" t="n">
-        <v>2615.101436338369</v>
+        <v>2615.101436338359</v>
       </c>
       <c r="O20" t="n">
-        <v>3118.073907217706</v>
+        <v>3118.073907217696</v>
       </c>
       <c r="P20" t="n">
-        <v>3512.848273574884</v>
+        <v>3512.848273574874</v>
       </c>
       <c r="Q20" t="n">
-        <v>3761.134635330566</v>
+        <v>3761.134635330556</v>
       </c>
       <c r="R20" t="n">
-        <v>3820.151701887369</v>
+        <v>3820.151701887359</v>
       </c>
       <c r="S20" t="n">
-        <v>3771.114017665063</v>
+        <v>3771.114017665054</v>
       </c>
       <c r="T20" t="n">
-        <v>3626.389254299885</v>
+        <v>3626.389254299876</v>
       </c>
       <c r="U20" t="n">
-        <v>3434.111761824322</v>
+        <v>3434.111761824312</v>
       </c>
       <c r="V20" t="n">
-        <v>3164.30185873135</v>
+        <v>3164.301858731342</v>
       </c>
       <c r="W20" t="n">
-        <v>2872.786187711836</v>
+        <v>2872.786187711828</v>
       </c>
       <c r="X20" t="n">
-        <v>2560.573413701356</v>
+        <v>2560.573413701348</v>
       </c>
       <c r="Y20" t="n">
-        <v>2231.687065976144</v>
+        <v>2231.687065976136</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>951.4347720866717</v>
+        <v>951.4347720866726</v>
       </c>
       <c r="C21" t="n">
-        <v>776.9817428055447</v>
+        <v>776.9817428055457</v>
       </c>
       <c r="D21" t="n">
-        <v>628.0473331442936</v>
+        <v>628.0473331442945</v>
       </c>
       <c r="E21" t="n">
-        <v>468.809878138838</v>
+        <v>468.8098781388389</v>
       </c>
       <c r="F21" t="n">
-        <v>322.2753201657231</v>
+        <v>322.275320165724</v>
       </c>
       <c r="G21" t="n">
-        <v>185.9122199983417</v>
+        <v>185.9122199983426</v>
       </c>
       <c r="H21" t="n">
-        <v>95.41032563620934</v>
+        <v>95.41032563620959</v>
       </c>
       <c r="I21" t="n">
-        <v>76.40303403774737</v>
+        <v>76.40303403774718</v>
       </c>
       <c r="J21" t="n">
-        <v>170.0803035283647</v>
+        <v>170.0803035283648</v>
       </c>
       <c r="K21" t="n">
-        <v>408.3445025087119</v>
+        <v>408.3445025087121</v>
       </c>
       <c r="L21" t="n">
-        <v>775.042662821377</v>
+        <v>775.0426628213775</v>
       </c>
       <c r="M21" t="n">
         <v>1222.318988043693</v>
       </c>
       <c r="N21" t="n">
-        <v>1695.842031598147</v>
+        <v>1695.842031598148</v>
       </c>
       <c r="O21" t="n">
-        <v>2106.803311016202</v>
+        <v>2106.803311016203</v>
       </c>
       <c r="P21" t="n">
-        <v>2417.302902492305</v>
+        <v>2417.302902492306</v>
       </c>
       <c r="Q21" t="n">
         <v>2574.944460138905</v>
       </c>
       <c r="R21" t="n">
-        <v>2574.80010673142</v>
+        <v>2574.800106731421</v>
       </c>
       <c r="S21" t="n">
-        <v>2445.3622202249</v>
+        <v>2445.362220224901</v>
       </c>
       <c r="T21" t="n">
-        <v>2252.719219902755</v>
+        <v>2252.719219902756</v>
       </c>
       <c r="U21" t="n">
-        <v>2024.651373037171</v>
+        <v>2024.651373037172</v>
       </c>
       <c r="V21" t="n">
-        <v>1789.499264805428</v>
+        <v>1789.499264805429</v>
       </c>
       <c r="W21" t="n">
         <v>1535.261908077227</v>
       </c>
       <c r="X21" t="n">
-        <v>1327.410407871694</v>
+        <v>1327.410407871695</v>
       </c>
       <c r="Y21" t="n">
-        <v>1119.65010910674</v>
+        <v>1119.650109106741</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>672.733708293173</v>
+        <v>672.7337082931708</v>
       </c>
       <c r="C22" t="n">
-        <v>565.0505096158658</v>
+        <v>565.0505096158639</v>
       </c>
       <c r="D22" t="n">
-        <v>476.1868544541298</v>
+        <v>476.1868544541283</v>
       </c>
       <c r="E22" t="n">
-        <v>389.5267451223365</v>
+        <v>389.5267451223352</v>
       </c>
       <c r="F22" t="n">
-        <v>303.889781875026</v>
+        <v>303.8897818750249</v>
       </c>
       <c r="G22" t="n">
-        <v>197.4399295003447</v>
+        <v>197.4399295003439</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4757269688022</v>
+        <v>112.4757269688018</v>
       </c>
       <c r="I22" t="n">
-        <v>76.40303403774737</v>
+        <v>76.40303403774718</v>
       </c>
       <c r="J22" t="n">
-        <v>121.5256664846829</v>
+        <v>121.5256664846827</v>
       </c>
       <c r="K22" t="n">
-        <v>325.5128494335593</v>
+        <v>356.6342108843574</v>
       </c>
       <c r="L22" t="n">
-        <v>673.1940093328587</v>
+        <v>673.1940093328535</v>
       </c>
       <c r="M22" t="n">
-        <v>1077.385104796421</v>
+        <v>1017.351054932403</v>
       </c>
       <c r="N22" t="n">
-        <v>1418.793481502285</v>
+        <v>1418.79348150228</v>
       </c>
       <c r="O22" t="n">
-        <v>1718.123080422699</v>
+        <v>1718.123080422694</v>
       </c>
       <c r="P22" t="n">
-        <v>2010.764630720371</v>
+        <v>1950.730580856353</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.374926872886</v>
+        <v>2088.374926872881</v>
       </c>
       <c r="R22" t="n">
-        <v>2059.797453881014</v>
+        <v>2059.797453881009</v>
       </c>
       <c r="S22" t="n">
-        <v>1929.36455395844</v>
+        <v>1929.364553958436</v>
       </c>
       <c r="T22" t="n">
-        <v>1768.850922778565</v>
+        <v>1768.850922778562</v>
       </c>
       <c r="U22" t="n">
-        <v>1541.001040154809</v>
+        <v>1541.001040154805</v>
       </c>
       <c r="V22" t="n">
-        <v>1347.569536199522</v>
+        <v>1347.569536199518</v>
       </c>
       <c r="W22" t="n">
-        <v>1119.405350413161</v>
+        <v>1119.405350413158</v>
       </c>
       <c r="X22" t="n">
-        <v>952.6687837657432</v>
+        <v>952.6687837657405</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.129188872813</v>
+        <v>793.1291888728105</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1946.343620216477</v>
+        <v>1946.343620216473</v>
       </c>
       <c r="C23" t="n">
-        <v>1638.634087526665</v>
+        <v>1638.634087526662</v>
       </c>
       <c r="D23" t="n">
-        <v>1341.621373170514</v>
+        <v>1341.621373170512</v>
       </c>
       <c r="E23" t="n">
-        <v>1017.086104822869</v>
+        <v>1017.086104822867</v>
       </c>
       <c r="F23" t="n">
-        <v>667.3531842838615</v>
+        <v>667.3531842838597</v>
       </c>
       <c r="G23" t="n">
-        <v>313.5337183794575</v>
+        <v>313.5337183794571</v>
       </c>
       <c r="H23" t="n">
-        <v>77.20310223882446</v>
+        <v>77.20310223882437</v>
       </c>
       <c r="I23" t="n">
-        <v>77.20310223882446</v>
+        <v>77.20310223882437</v>
       </c>
       <c r="J23" t="n">
-        <v>266.0822331978499</v>
+        <v>266.0822331978498</v>
       </c>
       <c r="K23" t="n">
         <v>599.9016068876963</v>
@@ -5996,43 +5996,43 @@
         <v>1050.935820136105</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.467724808029</v>
+        <v>1898.13418858013</v>
       </c>
       <c r="N23" t="n">
-        <v>2131.246541866812</v>
+        <v>2444.913005638913</v>
       </c>
       <c r="O23" t="n">
-        <v>3011.211192196266</v>
+        <v>2947.88547651825</v>
       </c>
       <c r="P23" t="n">
-        <v>3405.985558553444</v>
+        <v>3342.659842875428</v>
       </c>
       <c r="Q23" t="n">
-        <v>3801.13804538442</v>
+        <v>3801.138045384416</v>
       </c>
       <c r="R23" t="n">
-        <v>3860.155111941222</v>
+        <v>3860.155111941218</v>
       </c>
       <c r="S23" t="n">
-        <v>3811.117427718917</v>
+        <v>3811.117427718913</v>
       </c>
       <c r="T23" t="n">
-        <v>3666.392664353739</v>
+        <v>3666.392664353735</v>
       </c>
       <c r="U23" t="n">
-        <v>3474.115171878176</v>
+        <v>3474.115171878171</v>
       </c>
       <c r="V23" t="n">
-        <v>3204.305268785205</v>
+        <v>3204.3052687852</v>
       </c>
       <c r="W23" t="n">
-        <v>2912.789597765691</v>
+        <v>2912.789597765686</v>
       </c>
       <c r="X23" t="n">
-        <v>2600.576823755211</v>
+        <v>2600.576823755207</v>
       </c>
       <c r="Y23" t="n">
-        <v>2271.690476029999</v>
+        <v>2271.690476029995</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>952.2348402877498</v>
+        <v>952.2348402877495</v>
       </c>
       <c r="C24" t="n">
-        <v>777.7818110066228</v>
+        <v>777.7818110066225</v>
       </c>
       <c r="D24" t="n">
-        <v>628.8474013453715</v>
+        <v>628.8474013453713</v>
       </c>
       <c r="E24" t="n">
-        <v>469.609946339916</v>
+        <v>469.6099463399158</v>
       </c>
       <c r="F24" t="n">
-        <v>323.0753883668009</v>
+        <v>323.0753883668008</v>
       </c>
       <c r="G24" t="n">
-        <v>186.712288199419</v>
+        <v>186.7122881994189</v>
       </c>
       <c r="H24" t="n">
-        <v>96.21039383728652</v>
+        <v>96.2103938372864</v>
       </c>
       <c r="I24" t="n">
-        <v>77.20310223882446</v>
+        <v>77.20310223882437</v>
       </c>
       <c r="J24" t="n">
-        <v>170.8803717294421</v>
+        <v>170.8803717294417</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1445707097892</v>
+        <v>409.1445707097889</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8427310224545</v>
+        <v>775.8427310224542</v>
       </c>
       <c r="M24" t="n">
         <v>1223.11905624477</v>
@@ -6099,7 +6099,7 @@
         <v>2253.519288103833</v>
       </c>
       <c r="U24" t="n">
-        <v>2025.451441238249</v>
+        <v>2025.451441238248</v>
       </c>
       <c r="V24" t="n">
         <v>1790.299333006506</v>
@@ -6108,7 +6108,7 @@
         <v>1536.061976278304</v>
       </c>
       <c r="X24" t="n">
-        <v>1328.210476072772</v>
+        <v>1328.210476072771</v>
       </c>
       <c r="Y24" t="n">
         <v>1120.450177307818</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>673.53377649425</v>
+        <v>673.5337764942481</v>
       </c>
       <c r="C25" t="n">
-        <v>565.8505778169429</v>
+        <v>565.8505778169412</v>
       </c>
       <c r="D25" t="n">
-        <v>476.986922655207</v>
+        <v>476.9869226552055</v>
       </c>
       <c r="E25" t="n">
-        <v>390.3268133234136</v>
+        <v>390.3268133234124</v>
       </c>
       <c r="F25" t="n">
-        <v>304.689850076103</v>
+        <v>304.6898500761021</v>
       </c>
       <c r="G25" t="n">
-        <v>198.2399977014218</v>
+        <v>198.2399977014211</v>
       </c>
       <c r="H25" t="n">
-        <v>113.2757951698793</v>
+        <v>113.275795169879</v>
       </c>
       <c r="I25" t="n">
-        <v>77.20310223882446</v>
+        <v>77.20310223882437</v>
       </c>
       <c r="J25" t="n">
-        <v>122.32573468576</v>
+        <v>122.3257346857599</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3469674986491</v>
+        <v>326.3129176346363</v>
       </c>
       <c r="L25" t="n">
-        <v>702.9067659471452</v>
+        <v>642.8727160831324</v>
       </c>
       <c r="M25" t="n">
-        <v>1107.097861410707</v>
+        <v>1018.15112313348</v>
       </c>
       <c r="N25" t="n">
-        <v>1479.627599567375</v>
+        <v>1419.593549703358</v>
       </c>
       <c r="O25" t="n">
-        <v>1778.957198487789</v>
+        <v>1778.957198487784</v>
       </c>
       <c r="P25" t="n">
-        <v>2011.564698921448</v>
+        <v>2011.564698921444</v>
       </c>
       <c r="Q25" t="n">
-        <v>2089.174995073963</v>
+        <v>2089.174995073959</v>
       </c>
       <c r="R25" t="n">
-        <v>2060.597522082091</v>
+        <v>2060.597522082086</v>
       </c>
       <c r="S25" t="n">
-        <v>1930.164622159517</v>
+        <v>1930.164622159513</v>
       </c>
       <c r="T25" t="n">
-        <v>1769.650990979642</v>
+        <v>1769.650990979639</v>
       </c>
       <c r="U25" t="n">
-        <v>1541.801108355886</v>
+        <v>1541.801108355882</v>
       </c>
       <c r="V25" t="n">
-        <v>1348.369604400599</v>
+        <v>1348.369604400596</v>
       </c>
       <c r="W25" t="n">
-        <v>1120.205418614238</v>
+        <v>1120.205418614235</v>
       </c>
       <c r="X25" t="n">
-        <v>953.4688519668202</v>
+        <v>953.4688519668177</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.92925707389</v>
+        <v>793.9292570738877</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,13 +6224,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>399.9472504130727</v>
       </c>
       <c r="K26" t="n">
-        <v>603.845421545561</v>
+        <v>733.7666241029192</v>
       </c>
       <c r="L26" t="n">
-        <v>1184.800837351329</v>
+        <v>1184.800837351328</v>
       </c>
       <c r="M26" t="n">
         <v>1718.332742023253</v>
@@ -6269,7 +6269,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6303,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6364,43 +6364,43 @@
         <v>652.6145002899668</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572252</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6464,13 +6464,13 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>1002.369923216576</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1453.404136464985</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1986.936041136909</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
         <v>2533.714858195691</v>
@@ -6540,13 +6540,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,25 +6619,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6646,16 +6646,16 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697162</v>
@@ -6686,61 +6686,61 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1326.966459396848</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>2305.516762226677</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.094314970129</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849466</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805549</v>
@@ -6774,22 +6774,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1588.411539465894</v>
+        <v>1662.351466305506</v>
       </c>
       <c r="N35" t="n">
-        <v>2475.303399835341</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164796</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q35" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309627</v>
@@ -6980,7 +6980,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F37" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C38" t="n">
         <v>1711.594658697162</v>
@@ -7160,7 +7160,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467796</v>
+        <v>698.90370154678</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7175,25 +7175,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1375.783593239423</v>
+        <v>1261.907203722596</v>
       </c>
       <c r="M38" t="n">
-        <v>1909.315497911347</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N38" t="n">
-        <v>2456.094314970129</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O38" t="n">
-        <v>3336.058965299584</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P38" t="n">
-        <v>3730.833331656761</v>
+        <v>3684.983160847722</v>
       </c>
       <c r="Q38" t="n">
-        <v>3979.119693412444</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834459</v>
@@ -7202,7 +7202,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
@@ -7214,7 +7214,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805549</v>
@@ -7251,13 +7251,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D40" t="n">
         <v>549.9474938257041</v>
@@ -7333,13 +7333,13 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7360,7 +7360,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467785</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,31 +7409,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>2305.516762226675</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285458</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521972</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7488,19 +7488,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,16 +7567,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7585,7 +7585,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
@@ -7640,43 +7640,43 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
         <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N44" t="n">
-        <v>2468.655602521439</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O44" t="n">
-        <v>2971.628073400776</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P44" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863832</v>
@@ -7688,7 +7688,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7722,16 +7722,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
@@ -7819,10 +7819,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7840,7 +7840,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
   </sheetData>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>6.172832922663076</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>99.68863490193786</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>73.43365770447195</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>71.88925279564432</v>
+        <v>416.116809641613</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>316.8348118910108</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>148.3496212881752</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>131.2335379367254</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>131.2335379367267</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>233.4533865158203</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>233.4533865158194</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10349,13 +10349,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>274.8351763665437</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>122.1718867553245</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,19 +10592,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>74.68679478748663</v>
       </c>
       <c r="N35" t="n">
-        <v>343.5485285966311</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,19 +10823,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>209.1187564935613</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>19.40311602546713</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>400.2032972882107</v>
+        <v>190.2350110279878</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>402.5500016878925</v>
       </c>
       <c r="N44" t="n">
-        <v>336.8335818149118</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>77.63598715361135</v>
       </c>
       <c r="C11" t="n">
-        <v>351.6075739815063</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>393.2107279522099</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>27.91161198342444</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>95.52244399867432</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>237.3298541694007</v>
+        <v>237.3298541694005</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>259.1800350840016</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>356.0657828889678</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>372.5726208665521</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.166662392436</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.7686448570679</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.75573023343</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0896971248195</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>82.68710262033684</v>
+        <v>82.68710262033659</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.26683488054607</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>20.97113661794273</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>205.8836314866677</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>272.5465204161114</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>74.39805663196364</v>
+        <v>212.0443375995357</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>341.0177238311817</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>368.2650522827606</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>180.8135293293014</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>314.0869406806337</v>
+        <v>314.0869406806334</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>335.5756509279115</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>356.0657828889675</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>198.4548716263604</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.1666623924361</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>153.5815033091263</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>132.768644857068</v>
+        <v>132.7686448570677</v>
       </c>
       <c r="F16" t="n">
-        <v>131.75573023343</v>
+        <v>131.7557302334297</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>152.3604904695267</v>
       </c>
       <c r="H16" t="n">
-        <v>74.87095715066248</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>82.6871026203369</v>
+        <v>82.68710262033659</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>205.883631486668</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>140.9792572511067</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.81130843424871</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>38.81130843425524</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23972,10 +23972,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>38.81130843425524</v>
       </c>
       <c r="E20" t="n">
-        <v>38.81130843424961</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1191916.236096791</v>
+        <v>1191916.236096792</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1191916.236096791</v>
+        <v>1191916.236096792</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1393832.493694602</v>
+        <v>1393832.493694601</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1393832.493694602</v>
+        <v>1393832.493694601</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1400189.245604005</v>
+        <v>1400189.245604004</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61445.72540377788</v>
+        <v>61445.72540377787</v>
       </c>
       <c r="C2" t="n">
-        <v>61445.72540377788</v>
+        <v>61445.72540377789</v>
       </c>
       <c r="D2" t="n">
-        <v>61445.72540377788</v>
+        <v>61445.72540377787</v>
       </c>
       <c r="E2" t="n">
-        <v>52959.71984872861</v>
+        <v>52959.71984872869</v>
       </c>
       <c r="F2" t="n">
-        <v>52959.71984872862</v>
+        <v>52959.7198487287</v>
       </c>
       <c r="G2" t="n">
-        <v>61346.42922846878</v>
+        <v>61346.42922846873</v>
       </c>
       <c r="H2" t="n">
-        <v>61346.42922846876</v>
+        <v>61346.42922846873</v>
       </c>
       <c r="I2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982121</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982121</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982117</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982116</v>
       </c>
       <c r="O2" t="n">
+        <v>61578.13273982114</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982122</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982117</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1134700.308569464</v>
+        <v>1134700.308569465</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71467.01119388654</v>
+        <v>71467.01119388585</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2659.436701232708</v>
+        <v>2659.436701233101</v>
       </c>
       <c r="J3" t="n">
-        <v>12898.44302927947</v>
+        <v>12898.44302927974</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29753.24015870709</v>
+        <v>29753.24015870649</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>23579.83155803445</v>
+        <v>23579.83155803468</v>
       </c>
       <c r="F4" t="n">
-        <v>23579.8315580344</v>
+        <v>23579.83155803468</v>
       </c>
       <c r="G4" t="n">
-        <v>80290.36045306739</v>
+        <v>80290.36045306723</v>
       </c>
       <c r="H4" t="n">
-        <v>80290.36045306735</v>
+        <v>80290.36045306723</v>
       </c>
       <c r="I4" t="n">
-        <v>81477.12876955485</v>
+        <v>81477.12876955487</v>
       </c>
       <c r="J4" t="n">
-        <v>78703.96570883351</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="K4" t="n">
-        <v>78703.96570883351</v>
+        <v>78703.96570883349</v>
       </c>
       <c r="L4" t="n">
-        <v>78703.96570883354</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="M4" t="n">
-        <v>78703.96570883355</v>
+        <v>78703.96570883346</v>
       </c>
       <c r="N4" t="n">
-        <v>78703.96570883354</v>
+        <v>78703.96570883349</v>
       </c>
       <c r="O4" t="n">
-        <v>78703.96570883349</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="P4" t="n">
-        <v>78703.96570883354</v>
+        <v>78703.96570883346</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>75455.17016263888</v>
+        <v>75455.17016263891</v>
       </c>
       <c r="F5" t="n">
-        <v>75455.17016263887</v>
+        <v>75455.1701626389</v>
       </c>
       <c r="G5" t="n">
-        <v>86921.42030325593</v>
+        <v>86921.42030325581</v>
       </c>
       <c r="H5" t="n">
-        <v>86921.42030325595</v>
+        <v>86921.42030325581</v>
       </c>
       <c r="I5" t="n">
-        <v>87529.47213607452</v>
+        <v>87529.47213607447</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26497,16 +26497,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
+        <v>89377.94167480613</v>
+      </c>
+      <c r="O5" t="n">
         <v>89377.94167480612</v>
-      </c>
-      <c r="O5" t="n">
-        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-397705.0137623256</v>
+        <v>-397709.4273401938</v>
       </c>
       <c r="C6" t="n">
-        <v>-397705.0137623256</v>
+        <v>-397709.4273401938</v>
       </c>
       <c r="D6" t="n">
-        <v>-397705.0137623256</v>
+        <v>-397709.4273401938</v>
       </c>
       <c r="E6" t="n">
-        <v>-1180775.590441409</v>
+        <v>-1181062.870871113</v>
       </c>
       <c r="F6" t="n">
-        <v>-46075.28187194461</v>
+        <v>-46362.56230164796</v>
       </c>
       <c r="G6" t="n">
-        <v>-177332.3627217411</v>
+        <v>-177340.0861721186</v>
       </c>
       <c r="H6" t="n">
-        <v>-105865.3515278545</v>
+        <v>-105873.0749782327</v>
       </c>
       <c r="I6" t="n">
-        <v>-110087.9048670408</v>
+        <v>-110087.9048670412</v>
       </c>
       <c r="J6" t="n">
-        <v>-119402.2176730979</v>
+        <v>-119402.2176730981</v>
       </c>
       <c r="K6" t="n">
         <v>-106503.7746438184</v>
       </c>
       <c r="L6" t="n">
-        <v>-144083.8839386925</v>
+        <v>-144083.8839386924</v>
       </c>
       <c r="M6" t="n">
         <v>-313692.3429358914</v>
       </c>
       <c r="N6" t="n">
+        <v>-106503.7746438185</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-136257.0148025249</v>
+      </c>
+      <c r="P6" t="n">
         <v>-106503.7746438184</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-136257.0148025255</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-106503.7746438185</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="F2" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="G2" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="H2" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="I2" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>955.0379254718422</v>
+        <v>955.0379254718397</v>
       </c>
       <c r="H4" t="n">
-        <v>955.0379254718422</v>
+        <v>955.0379254718397</v>
       </c>
       <c r="I4" t="n">
-        <v>965.0387779853056</v>
+        <v>965.0387779853046</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>123.6364700695495</v>
+        <v>123.636470069547</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.00085251346343</v>
+        <v>10.00085251346491</v>
       </c>
       <c r="J4" t="n">
-        <v>49.29768322330904</v>
+        <v>49.29768322331006</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695492</v>
+        <v>123.6364700695467</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695495</v>
+        <v>123.636470069547</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="C11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="D11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="E11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="F11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="G11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="H11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="I11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="T11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="U11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="V11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="W11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="X11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="C13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="D13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="E13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="F13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="G13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="H13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="I13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="J13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="K13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="L13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="M13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="N13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="O13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="P13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="R13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="S13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="T13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="U13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="V13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="W13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="X13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950151</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="C14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="D14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="E14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="F14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="G14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="H14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="I14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="T14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="U14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="V14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="W14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="X14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="C16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="D16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="E16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="F16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="G16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="H16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="I16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="J16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="K16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="L16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="M16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="N16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="O16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="P16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="R16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="S16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="T16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="U16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="V16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="W16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="X16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.66531778950122</v>
+        <v>13.66531778950151</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="C17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="D17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="E17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="F17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="G17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="H17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="T17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="U17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="V17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="W17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="X17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
     </row>
     <row r="18">
@@ -28719,43 +28719,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="C19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="D19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="E19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="G19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="H19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="I19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="K19" t="n">
-        <v>60.64045440809378</v>
+        <v>31.43571863717008</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>60.64045440809378</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>31.43571863717546</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="R19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="S19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="T19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="U19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="V19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="W19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="X19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="C20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="D20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="E20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="F20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="G20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="H20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="T20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="U20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="V20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="W20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="X20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="C22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="D22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="E22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="F22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="G22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="H22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="I22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>31.43571863716997</v>
       </c>
       <c r="L22" t="n">
-        <v>31.43571863717506</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>60.64045440809378</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>60.64045440809378</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="R22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="S22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="T22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="U22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="V22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="W22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="X22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="C23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="D23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="E23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="F23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="G23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="H23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="T23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="U23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="V23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="W23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="X23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
     </row>
     <row r="24">
@@ -29193,46 +29193,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="C25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="D25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="E25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="F25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="H25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="I25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>60.64045440809378</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>60.64045440809378</v>
+        <v>31.43571863717028</v>
       </c>
       <c r="N25" t="n">
-        <v>31.43571863717546</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="S25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="T25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="U25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="V25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="W25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="X25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.64045440809378</v>
+        <v>60.64045440809406</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859398</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O43" t="n">
         <v>46.97513661859256</v>
@@ -30715,7 +30715,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
         <v>46.97513661859256</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.24373440256747</v>
+        <v>59.24373440256773</v>
       </c>
       <c r="K13" t="n">
-        <v>219.7129773338208</v>
+        <v>219.7129773338211</v>
       </c>
       <c r="L13" t="n">
-        <v>333.4226899596993</v>
+        <v>333.4226899596997</v>
       </c>
       <c r="M13" t="n">
-        <v>361.2986971829851</v>
+        <v>361.2986971829853</v>
       </c>
       <c r="N13" t="n">
-        <v>358.5222639570413</v>
+        <v>358.5222639570416</v>
       </c>
       <c r="O13" t="n">
-        <v>316.018448012141</v>
+        <v>316.0184480121413</v>
       </c>
       <c r="P13" t="n">
-        <v>248.6223889346116</v>
+        <v>248.6223889346119</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.0595563273949</v>
+        <v>92.05955632739517</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.24373440256741</v>
+        <v>59.24373440256774</v>
       </c>
       <c r="K16" t="n">
-        <v>219.7129773338207</v>
+        <v>219.7129773338211</v>
       </c>
       <c r="L16" t="n">
-        <v>333.4226899596993</v>
+        <v>333.4226899596996</v>
       </c>
       <c r="M16" t="n">
-        <v>361.298697182985</v>
+        <v>361.2986971829853</v>
       </c>
       <c r="N16" t="n">
-        <v>358.5222639570412</v>
+        <v>358.5222639570416</v>
       </c>
       <c r="O16" t="n">
-        <v>316.0184480121409</v>
+        <v>316.0184480121413</v>
       </c>
       <c r="P16" t="n">
-        <v>248.6223889346116</v>
+        <v>248.6223889346119</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.05955632739484</v>
+        <v>92.05955632739517</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>343.3641194780635</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>498.4506211213097</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>106.2188710211603</v>
       </c>
       <c r="K19" t="n">
-        <v>266.6881139524133</v>
+        <v>237.4833781814897</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>408.2738338015776</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>376.2926648047155</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>139.0346929459877</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>410.6249442598724</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>610.8103686258711</v>
+        <v>955.0379254718397</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
@@ -36279,25 +36279,25 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>237.4833781814895</v>
       </c>
       <c r="L22" t="n">
-        <v>351.1930908073732</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>408.2738338015776</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>405.4974005756342</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>295.5975255532042</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>139.0346929459877</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>855.7559277212375</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>399.1439260918946</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>266.6881139524133</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>408.2738338015776</v>
+        <v>379.0690980306541</v>
       </c>
       <c r="N25" t="n">
-        <v>376.2926648047155</v>
+        <v>405.4974005756342</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>362.9935846307338</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>322.0205389054379</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>586.8236523290586</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412337</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>570.6446730712207</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>785.7552219287309</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>730.4252907588759</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>520.9338729746961</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>613.6079106177134</v>
       </c>
       <c r="N35" t="n">
-        <v>895.8503640095423</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120764</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>664.7088708858935</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>79.01631456769185</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>939.1244131184372</v>
+        <v>729.1561268582145</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>941.4711175181193</v>
       </c>
       <c r="N44" t="n">
-        <v>889.135417227823</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
